--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serping1-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H2">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I2">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J2">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.0902710439126</v>
+        <v>33.0450625</v>
       </c>
       <c r="N2">
-        <v>32.0902710439126</v>
+        <v>66.090125</v>
       </c>
       <c r="O2">
-        <v>0.7017757580697982</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P2">
-        <v>0.7017757580697982</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q2">
-        <v>455.2918105119784</v>
+        <v>519.4495137693126</v>
       </c>
       <c r="R2">
-        <v>455.2918105119784</v>
+        <v>2077.79805507725</v>
       </c>
       <c r="S2">
-        <v>0.02456618056674558</v>
+        <v>0.02522560724655872</v>
       </c>
       <c r="T2">
-        <v>0.02456618056674558</v>
+        <v>0.01635673855160525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,557 +590,1797 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.1878455899906</v>
+        <v>15.719429</v>
       </c>
       <c r="H3">
-        <v>14.1878455899906</v>
+        <v>31.438858</v>
       </c>
       <c r="I3">
-        <v>0.03500574119903162</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J3">
-        <v>0.03500574119903162</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>13.6369725590517</v>
+        <v>0.195349</v>
       </c>
       <c r="N3">
-        <v>13.6369725590517</v>
+        <v>0.586047</v>
       </c>
       <c r="O3">
-        <v>0.2982242419302018</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P3">
-        <v>0.2982242419302018</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q3">
-        <v>193.4792609827645</v>
+        <v>3.070774735721</v>
       </c>
       <c r="R3">
-        <v>193.4792609827645</v>
+        <v>18.424648414326</v>
       </c>
       <c r="S3">
-        <v>0.01043956063228604</v>
+        <v>0.000149123553632498</v>
       </c>
       <c r="T3">
-        <v>0.01043956063228604</v>
+        <v>0.0001450416012672483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>241.63529366561</v>
+        <v>15.719429</v>
       </c>
       <c r="H4">
-        <v>241.63529366561</v>
+        <v>31.438858</v>
       </c>
       <c r="I4">
-        <v>0.5961879484068979</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J4">
-        <v>0.5961879484068979</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>32.0902710439126</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N4">
-        <v>32.0902710439126</v>
+        <v>0.832376</v>
       </c>
       <c r="O4">
-        <v>0.7017757580697982</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P4">
-        <v>0.7017757580697982</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q4">
-        <v>7754.142067504842</v>
+        <v>4.361491811101335</v>
       </c>
       <c r="R4">
-        <v>7754.142067504842</v>
+        <v>26.168950866608</v>
       </c>
       <c r="S4">
-        <v>0.4183902494453285</v>
+        <v>0.0002118036046228446</v>
       </c>
       <c r="T4">
-        <v>0.4183902494453285</v>
+        <v>0.0002060059140246893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>241.63529366561</v>
+        <v>15.719429</v>
       </c>
       <c r="H5">
-        <v>241.63529366561</v>
+        <v>31.438858</v>
       </c>
       <c r="I5">
-        <v>0.5961879484068979</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J5">
-        <v>0.5961879484068979</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.6369725590517</v>
+        <v>14.267144</v>
       </c>
       <c r="N5">
-        <v>13.6369725590517</v>
+        <v>42.801432</v>
       </c>
       <c r="O5">
-        <v>0.2982242419302018</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P5">
-        <v>0.2982242419302018</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q5">
-        <v>3295.173869016322</v>
+        <v>224.271357140776</v>
       </c>
       <c r="R5">
-        <v>3295.173869016322</v>
+        <v>1345.628142844656</v>
       </c>
       <c r="S5">
-        <v>0.1777976989615694</v>
+        <v>0.01089110880253583</v>
       </c>
       <c r="T5">
-        <v>0.1777976989615694</v>
+        <v>0.01059298696829989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.486059389495039</v>
+        <v>15.719429</v>
       </c>
       <c r="H6">
-        <v>0.486059389495039</v>
+        <v>31.438858</v>
       </c>
       <c r="I6">
-        <v>0.001199256722107724</v>
+        <v>0.03655557182726898</v>
       </c>
       <c r="J6">
-        <v>0.001199256722107724</v>
+        <v>0.02735130335739092</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>32.0902710439126</v>
+        <v>0.102085</v>
       </c>
       <c r="N6">
-        <v>32.0902710439126</v>
+        <v>0.20417</v>
       </c>
       <c r="O6">
-        <v>0.7017757580697982</v>
+        <v>0.002131785006327121</v>
       </c>
       <c r="P6">
-        <v>0.7017757580697982</v>
+        <v>0.00184745573304414</v>
       </c>
       <c r="Q6">
-        <v>15.59777755233449</v>
+        <v>1.604717909465</v>
       </c>
       <c r="R6">
-        <v>15.59777755233449</v>
+        <v>6.418871637860001</v>
       </c>
       <c r="S6">
-        <v>0.000841609295277449</v>
+        <v>7.792861991908615E-05</v>
       </c>
       <c r="T6">
-        <v>0.000841609295277449</v>
+        <v>5.053032219384127E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.486059389495039</v>
+        <v>256.32429</v>
       </c>
       <c r="H7">
-        <v>0.486059389495039</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I7">
-        <v>0.001199256722107724</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J7">
-        <v>0.001199256722107724</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.6369725590517</v>
+        <v>33.0450625</v>
       </c>
       <c r="N7">
-        <v>13.6369725590517</v>
+        <v>66.090125</v>
       </c>
       <c r="O7">
-        <v>0.2982242419302018</v>
+        <v>0.6900618971508313</v>
       </c>
       <c r="P7">
-        <v>0.2982242419302018</v>
+        <v>0.5980240991764403</v>
       </c>
       <c r="Q7">
-        <v>6.628378556613269</v>
+        <v>8470.252183318125</v>
       </c>
       <c r="R7">
-        <v>6.628378556613269</v>
+        <v>50821.51309990876</v>
       </c>
       <c r="S7">
-        <v>0.0003576474268302745</v>
+        <v>0.4113340164768718</v>
       </c>
       <c r="T7">
-        <v>0.0003576474268302745</v>
+        <v>0.400074588837404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>24.1362313837129</v>
+        <v>256.32429</v>
       </c>
       <c r="H8">
-        <v>24.1362313837129</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I8">
-        <v>0.05955144239335908</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J8">
-        <v>0.05955144239335908</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>32.0902710439126</v>
+        <v>0.195349</v>
       </c>
       <c r="N8">
-        <v>32.0902710439126</v>
+        <v>0.586047</v>
       </c>
       <c r="O8">
-        <v>0.7017757580697982</v>
+        <v>0.004079365912729557</v>
       </c>
       <c r="P8">
-        <v>0.7017757580697982</v>
+        <v>0.005302913699286471</v>
       </c>
       <c r="Q8">
-        <v>774.5382070819367</v>
+        <v>50.07269372721</v>
       </c>
       <c r="R8">
-        <v>774.5382070819367</v>
+        <v>450.65424354489</v>
       </c>
       <c r="S8">
-        <v>0.04179175862974949</v>
+        <v>0.002431639788387159</v>
       </c>
       <c r="T8">
-        <v>0.04179175862974949</v>
+        <v>0.003547617931792293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>24.1362313837129</v>
+        <v>256.32429</v>
       </c>
       <c r="H9">
-        <v>24.1362313837129</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I9">
-        <v>0.05955144239335908</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J9">
-        <v>0.05955144239335908</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>13.6369725590517</v>
+        <v>0.2774586666666667</v>
       </c>
       <c r="N9">
-        <v>13.6369725590517</v>
+        <v>0.832376</v>
       </c>
       <c r="O9">
-        <v>0.2982242419302018</v>
+        <v>0.005794017000298915</v>
       </c>
       <c r="P9">
-        <v>0.2982242419302018</v>
+        <v>0.007531849993869563</v>
       </c>
       <c r="Q9">
-        <v>329.1451250586152</v>
+        <v>71.11939573768001</v>
       </c>
       <c r="R9">
-        <v>329.1451250586152</v>
+        <v>640.07456163912</v>
       </c>
       <c r="S9">
-        <v>0.01775968376360959</v>
+        <v>0.003453713781486041</v>
       </c>
       <c r="T9">
-        <v>0.01775968376360959</v>
+        <v>0.005038763142876838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>124.855103655737</v>
+        <v>256.32429</v>
       </c>
       <c r="H10">
-        <v>124.855103655737</v>
+        <v>768.9728700000001</v>
       </c>
       <c r="I10">
-        <v>0.3080556112786038</v>
+        <v>0.596082783552044</v>
       </c>
       <c r="J10">
-        <v>0.3080556112786038</v>
+        <v>0.6689940913557842</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0902710439126</v>
+        <v>14.267144</v>
       </c>
       <c r="N10">
-        <v>32.0902710439126</v>
+        <v>42.801432</v>
       </c>
       <c r="O10">
-        <v>0.7017757580697982</v>
+        <v>0.2979329349298129</v>
       </c>
       <c r="P10">
-        <v>0.7017757580697982</v>
+        <v>0.3872936813973595</v>
       </c>
       <c r="Q10">
-        <v>4006.634117528403</v>
+        <v>3657.01555612776</v>
       </c>
       <c r="R10">
-        <v>4006.634117528403</v>
+        <v>32913.14000514984</v>
       </c>
       <c r="S10">
-        <v>0.2161859601326972</v>
+        <v>0.1775926931647929</v>
       </c>
       <c r="T10">
-        <v>0.2161859601326972</v>
+        <v>0.2590971844742631</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>256.32429</v>
+      </c>
+      <c r="H11">
+        <v>768.9728700000001</v>
+      </c>
+      <c r="I11">
+        <v>0.596082783552044</v>
+      </c>
+      <c r="J11">
+        <v>0.6689940913557842</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.102085</v>
+      </c>
+      <c r="N11">
+        <v>0.20417</v>
+      </c>
+      <c r="O11">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P11">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q11">
+        <v>26.16686514465</v>
+      </c>
+      <c r="R11">
+        <v>157.0011908679</v>
+      </c>
+      <c r="S11">
+        <v>0.001270720340505982</v>
+      </c>
+      <c r="T11">
+        <v>0.001235936969447898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2855083333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.856525</v>
+      </c>
+      <c r="I12">
+        <v>0.0006639503500063851</v>
+      </c>
+      <c r="J12">
+        <v>0.0007451630433964635</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>33.0450625</v>
+      </c>
+      <c r="N12">
+        <v>66.090125</v>
+      </c>
+      <c r="O12">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P12">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q12">
+        <v>9.434640719270833</v>
+      </c>
+      <c r="R12">
+        <v>56.607844315625</v>
+      </c>
+      <c r="S12">
+        <v>0.0004581668381393645</v>
+      </c>
+      <c r="T12">
+        <v>0.0004456254577667448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2855083333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.856525</v>
+      </c>
+      <c r="I13">
+        <v>0.0006639503500063851</v>
+      </c>
+      <c r="J13">
+        <v>0.0007451630433964635</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.195349</v>
+      </c>
+      <c r="N13">
+        <v>0.586047</v>
+      </c>
+      <c r="O13">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P13">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q13">
+        <v>0.05577376740833333</v>
+      </c>
+      <c r="R13">
+        <v>0.501963906675</v>
+      </c>
+      <c r="S13">
+        <v>2.708496425560906E-06</v>
+      </c>
+      <c r="T13">
+        <v>3.951535311029105E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2855083333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.856525</v>
+      </c>
+      <c r="I14">
+        <v>0.0006639503500063851</v>
+      </c>
+      <c r="J14">
+        <v>0.0007451630433964635</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.832376</v>
+      </c>
+      <c r="O14">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P14">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q14">
+        <v>0.07921676148888888</v>
+      </c>
+      <c r="R14">
+        <v>0.7129508534</v>
+      </c>
+      <c r="S14">
+        <v>3.84693961529141E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.612456263837479E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2855083333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.856525</v>
+      </c>
+      <c r="I15">
+        <v>0.0006639503500063851</v>
+      </c>
+      <c r="J15">
+        <v>0.0007451630433964635</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.267144</v>
+      </c>
+      <c r="N15">
+        <v>42.801432</v>
+      </c>
+      <c r="O15">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P15">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q15">
+        <v>4.073388504866666</v>
+      </c>
+      <c r="R15">
+        <v>36.6604965438</v>
+      </c>
+      <c r="S15">
+        <v>0.0001978126764250788</v>
+      </c>
+      <c r="T15">
+        <v>0.0002885969383182767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2855083333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.856525</v>
+      </c>
+      <c r="I16">
+        <v>0.0006639503500063851</v>
+      </c>
+      <c r="J16">
+        <v>0.0007451630433964635</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.102085</v>
+      </c>
+      <c r="N16">
+        <v>0.20417</v>
+      </c>
+      <c r="O16">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P16">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q16">
+        <v>0.02914611820833333</v>
+      </c>
+      <c r="R16">
+        <v>0.17487670925</v>
+      </c>
+      <c r="S16">
+        <v>1.415399401089256E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.376655736575415E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>124.855103655737</v>
-      </c>
-      <c r="H11">
-        <v>124.855103655737</v>
-      </c>
-      <c r="I11">
-        <v>0.3080556112786038</v>
-      </c>
-      <c r="J11">
-        <v>0.3080556112786038</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="N11">
-        <v>13.6369725590517</v>
-      </c>
-      <c r="O11">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="P11">
-        <v>0.2982242419302018</v>
-      </c>
-      <c r="Q11">
-        <v>1702.645622410841</v>
-      </c>
-      <c r="R11">
-        <v>1702.645622410841</v>
-      </c>
-      <c r="S11">
-        <v>0.09186965114590653</v>
-      </c>
-      <c r="T11">
-        <v>0.09186965114590653</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.720924</v>
+      </c>
+      <c r="I17">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J17">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.0450625</v>
+      </c>
+      <c r="N17">
+        <v>66.090125</v>
+      </c>
+      <c r="O17">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P17">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q17">
+        <v>18.95601371258334</v>
+      </c>
+      <c r="R17">
+        <v>113.7360822755</v>
+      </c>
+      <c r="S17">
+        <v>0.0009205455856608364</v>
+      </c>
+      <c r="T17">
+        <v>0.0008953475325084234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.720924</v>
+      </c>
+      <c r="I18">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J18">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.195349</v>
+      </c>
+      <c r="N18">
+        <v>0.586047</v>
+      </c>
+      <c r="O18">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P18">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q18">
+        <v>0.1120602608253333</v>
+      </c>
+      <c r="R18">
+        <v>1.008542347428</v>
+      </c>
+      <c r="S18">
+        <v>5.441891950219756E-06</v>
+      </c>
+      <c r="T18">
+        <v>7.939396927815828E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.720924</v>
+      </c>
+      <c r="I19">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J19">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.832376</v>
+      </c>
+      <c r="O19">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P19">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q19">
+        <v>0.1591617594915556</v>
+      </c>
+      <c r="R19">
+        <v>1.432455835424</v>
+      </c>
+      <c r="S19">
+        <v>7.729243992301164E-06</v>
+      </c>
+      <c r="T19">
+        <v>1.12765076131908E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.720924</v>
+      </c>
+      <c r="I20">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J20">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.267144</v>
+      </c>
+      <c r="N20">
+        <v>42.801432</v>
+      </c>
+      <c r="O20">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P20">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q20">
+        <v>8.184223507018666</v>
+      </c>
+      <c r="R20">
+        <v>73.65801156316799</v>
+      </c>
+      <c r="S20">
+        <v>0.0003974438368572458</v>
+      </c>
+      <c r="T20">
+        <v>0.0005798469367250716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5736413333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.720924</v>
+      </c>
+      <c r="I21">
+        <v>0.001334004368972754</v>
+      </c>
+      <c r="J21">
+        <v>0.00149717634078867</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.102085</v>
+      </c>
+      <c r="N21">
+        <v>0.20417</v>
+      </c>
+      <c r="O21">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P21">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q21">
+        <v>0.05856017551333333</v>
+      </c>
+      <c r="R21">
+        <v>0.35136105308</v>
+      </c>
+      <c r="S21">
+        <v>2.84381051215099E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.765967014168074E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>32.233823</v>
+      </c>
+      <c r="H22">
+        <v>96.701469</v>
+      </c>
+      <c r="I22">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J22">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.0450625</v>
+      </c>
+      <c r="N22">
+        <v>66.090125</v>
+      </c>
+      <c r="O22">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P22">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q22">
+        <v>1065.168695648938</v>
+      </c>
+      <c r="R22">
+        <v>6391.012173893625</v>
+      </c>
+      <c r="S22">
+        <v>0.05172692717102453</v>
+      </c>
+      <c r="T22">
+        <v>0.05031100830663633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>32.233823</v>
+      </c>
+      <c r="H23">
+        <v>96.701469</v>
+      </c>
+      <c r="I23">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J23">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.195349</v>
+      </c>
+      <c r="N23">
+        <v>0.586047</v>
+      </c>
+      <c r="O23">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P23">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q23">
+        <v>6.296845089227</v>
+      </c>
+      <c r="R23">
+        <v>56.671605803043</v>
+      </c>
+      <c r="S23">
+        <v>0.0003057886029397726</v>
+      </c>
+      <c r="T23">
+        <v>0.0004461273977780992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>32.233823</v>
+      </c>
+      <c r="H24">
+        <v>96.701469</v>
+      </c>
+      <c r="I24">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J24">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.832376</v>
+      </c>
+      <c r="O24">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P24">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q24">
+        <v>8.943553551149334</v>
+      </c>
+      <c r="R24">
+        <v>80.49198196034401</v>
+      </c>
+      <c r="S24">
+        <v>0.000434318568579988</v>
+      </c>
+      <c r="T24">
+        <v>0.0006336449787353969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>32.233823</v>
+      </c>
+      <c r="H25">
+        <v>96.701469</v>
+      </c>
+      <c r="I25">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J25">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.267144</v>
+      </c>
+      <c r="N25">
+        <v>42.801432</v>
+      </c>
+      <c r="O25">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P25">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q25">
+        <v>459.884594411512</v>
+      </c>
+      <c r="R25">
+        <v>4138.961349703608</v>
+      </c>
+      <c r="S25">
+        <v>0.02233300417048749</v>
+      </c>
+      <c r="T25">
+        <v>0.03258252576898485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.233823</v>
+      </c>
+      <c r="H26">
+        <v>96.701469</v>
+      </c>
+      <c r="I26">
+        <v>0.07495983676913295</v>
+      </c>
+      <c r="J26">
+        <v>0.08412873055771726</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.102085</v>
+      </c>
+      <c r="N26">
+        <v>0.20417</v>
+      </c>
+      <c r="O26">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P26">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q26">
+        <v>3.290589820955</v>
+      </c>
+      <c r="R26">
+        <v>19.74353892573</v>
+      </c>
+      <c r="S26">
+        <v>0.0001597982561011661</v>
+      </c>
+      <c r="T26">
+        <v>0.0001554241055825804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>124.877892</v>
+      </c>
+      <c r="H27">
+        <v>249.755784</v>
+      </c>
+      <c r="I27">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J27">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>33.0450625</v>
+      </c>
+      <c r="N27">
+        <v>66.090125</v>
+      </c>
+      <c r="O27">
+        <v>0.6900618971508313</v>
+      </c>
+      <c r="P27">
+        <v>0.5980240991764403</v>
+      </c>
+      <c r="Q27">
+        <v>4126.59774600825</v>
+      </c>
+      <c r="R27">
+        <v>16506.390984033</v>
+      </c>
+      <c r="S27">
+        <v>0.200396633832576</v>
+      </c>
+      <c r="T27">
+        <v>0.1299407904905195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>124.877892</v>
+      </c>
+      <c r="H28">
+        <v>249.755784</v>
+      </c>
+      <c r="I28">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J28">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.195349</v>
+      </c>
+      <c r="N28">
+        <v>0.586047</v>
+      </c>
+      <c r="O28">
+        <v>0.004079365912729557</v>
+      </c>
+      <c r="P28">
+        <v>0.005302913699286471</v>
+      </c>
+      <c r="Q28">
+        <v>24.394771324308</v>
+      </c>
+      <c r="R28">
+        <v>146.368627945848</v>
+      </c>
+      <c r="S28">
+        <v>0.001184663579394346</v>
+      </c>
+      <c r="T28">
+        <v>0.001152235836209986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>124.877892</v>
+      </c>
+      <c r="H29">
+        <v>249.755784</v>
+      </c>
+      <c r="I29">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J29">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.2774586666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.832376</v>
+      </c>
+      <c r="O29">
+        <v>0.005794017000298915</v>
+      </c>
+      <c r="P29">
+        <v>0.007531849993869563</v>
+      </c>
+      <c r="Q29">
+        <v>34.648453410464</v>
+      </c>
+      <c r="R29">
+        <v>207.890720462784</v>
+      </c>
+      <c r="S29">
+        <v>0.001682604862002448</v>
+      </c>
+      <c r="T29">
+        <v>0.001636546994355612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>124.877892</v>
+      </c>
+      <c r="H30">
+        <v>249.755784</v>
+      </c>
+      <c r="I30">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J30">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>14.267144</v>
+      </c>
+      <c r="N30">
+        <v>42.801432</v>
+      </c>
+      <c r="O30">
+        <v>0.2979329349298129</v>
+      </c>
+      <c r="P30">
+        <v>0.3872936813973595</v>
+      </c>
+      <c r="Q30">
+        <v>1781.650867580448</v>
+      </c>
+      <c r="R30">
+        <v>10689.90520548269</v>
+      </c>
+      <c r="S30">
+        <v>0.08652087227871438</v>
+      </c>
+      <c r="T30">
+        <v>0.08415254031076833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>124.877892</v>
+      </c>
+      <c r="H31">
+        <v>249.755784</v>
+      </c>
+      <c r="I31">
+        <v>0.2904038531325749</v>
+      </c>
+      <c r="J31">
+        <v>0.2172835353449225</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.102085</v>
+      </c>
+      <c r="N31">
+        <v>0.20417</v>
+      </c>
+      <c r="O31">
+        <v>0.002131785006327121</v>
+      </c>
+      <c r="P31">
+        <v>0.00184745573304414</v>
+      </c>
+      <c r="Q31">
+        <v>12.74815960482</v>
+      </c>
+      <c r="R31">
+        <v>50.99263841928</v>
+      </c>
+      <c r="S31">
+        <v>0.0006190785798876466</v>
+      </c>
+      <c r="T31">
+        <v>0.0004014217130690761</v>
       </c>
     </row>
   </sheetData>
